--- a/63. Motorcross_Snowmobile_NLP.xlsx
+++ b/63. Motorcross_Snowmobile_NLP.xlsx
@@ -8,14 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6C1B8-B85E-4CF6-8BE7-C672202A2E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E964D07-FDF1-4335-A637-01DFFAAE9646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DBE8E021-22CB-4905-8F3F-104AFC025024}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBE8E021-22CB-4905-8F3F-104AFC025024}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="problem_statement" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$2:$D$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$2:$D$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$E$9</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$G$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,6 +71,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>X = no. of XJ6</t>
+  </si>
+  <si>
+    <t>Y = no. of XJ8</t>
+  </si>
+  <si>
+    <t>4 - 0.1X</t>
+  </si>
+  <si>
+    <t>5 - 0.2Y</t>
+  </si>
+  <si>
+    <t>Objective (Max):</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Constraint:</t>
+  </si>
+  <si>
+    <t>Testing Hours</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>Motorcross Snowmobiles should produce 18 XJ6 and 11 XJ8 to achieve a maximum revenue of 70.4 thousand dollars under the given contraint of testing time.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -47,15 +129,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +157,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +304,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -202,7 +322,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>X = # of XJ6 and </a:t>
+                <a:t> = # of XJ6 and </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -211,7 +331,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -229,7 +349,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Y = # of XJ8, the revenue is then </a:t>
+                <a:t> = # of XJ8, the revenue is then </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -238,7 +358,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -249,7 +369,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -260,7 +380,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -273,7 +393,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -285,7 +405,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -296,7 +416,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -307,7 +427,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -318,7 +438,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -329,7 +449,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -340,7 +460,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -353,7 +473,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -364,7 +484,7 @@
                       <a:solidFill>
                         <a:schemeClr val="dk1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -377,7 +497,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -389,7 +509,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -400,7 +520,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -411,7 +531,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -422,7 +542,7 @@
                           <a:solidFill>
                             <a:schemeClr val="dk1"/>
                           </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -432,18 +552,15 @@
                   </m:d>
                 </m:oMath>
               </a14:m>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>R, equals, X, left parenthesis, 4, minus, 0, point, 1, X, right parenthesis, plus, Y, left parenthesis, 5, minus, point, 02, Y, right parenthesis.</a:t>
-              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -545,7 +662,7 @@
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -561,14 +678,14 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>X = # of XJ6 and </a:t>
+                <a:t> = # of XJ6 and </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-IN" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -584,14 +701,14 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Y = # of XJ8, the revenue is then </a:t>
+                <a:t> = # of XJ8, the revenue is then </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-IN" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -602,24 +719,21 @@
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>(4−0.1𝑋)+𝑌(5−.02𝑌)</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>R, equals, X, left parenthesis, 4, minus, 0, point, 1, X, right parenthesis, plus, Y, left parenthesis, 5, minus, point, 02, Y, right parenthesis.</a:t>
-              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -964,14 +1078,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73993EBB-3F1F-46D5-9CB2-065F2BB46E2F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <f>4-0.1*C2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2" s="1">
+        <f>5-0.2*D2</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C2*E2+D2*F2</f>
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUMPRODUCT(C2:D2,C9:D9)</f>
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -980,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE96E24-2EAE-4549-8F2C-7915ADF70B5A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/63. Motorcross_Snowmobile_NLP.xlsx
+++ b/63. Motorcross_Snowmobile_NLP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E964D07-FDF1-4335-A637-01DFFAAE9646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57654EA5-910F-447D-AFF2-E36A8E717942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBE8E021-22CB-4905-8F3F-104AFC025024}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>4 - 0.1X</t>
   </si>
   <si>
-    <t>5 - 0.2Y</t>
-  </si>
-  <si>
     <t>Objective (Max):</t>
   </si>
   <si>
@@ -113,7 +110,10 @@
     <t>Result:</t>
   </si>
   <si>
-    <t>Motorcross Snowmobiles should produce 18 XJ6 and 11 XJ8 to achieve a maximum revenue of 70.4 thousand dollars under the given contraint of testing time.</t>
+    <t>5 - 0.02Y</t>
+  </si>
+  <si>
+    <t>Motorcross Snowmobiles should produce 10 XJ6 and 15 XJ8 to achieve a maximum revenue of 100.5 thousand dollars under the given contraint of testing time.</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,59 +1102,59 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
-        <f>4-0.1*C2</f>
-        <v>2.2000000000000002</v>
+        <f>4-(0.1*C2)</f>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>5-0.2*D2</f>
-        <v>2.8</v>
+        <f>5-(0.02*D2)</f>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <f>C2*E2+D2*F2</f>
-        <v>70.400000000000006</v>
+        <f>(C2*E2)+(D2*F2)</f>
+        <v>100.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2">
@@ -1168,7 +1168,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>40</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
